--- a/Simon Roland/teszt/TeszteljükLe.xlsx
+++ b/Simon Roland/teszt/TeszteljükLe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SimonRoland\Desktop\suli2023\KA_12D.github.io\Simon Roland\teszt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB3BEE4-BDF3-4E49-8F26-B077AA48D69B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60793E19-B1B1-457F-A6FA-9A5E0F94D1A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7350" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7350" tabRatio="675" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tesztesetek" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="271">
   <si>
     <t>Teszteset száma</t>
   </si>
@@ -691,9 +691,6 @@
     <t>valószínűleg ezt is levágja</t>
   </si>
   <si>
-    <t>90999999999999999999999</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -970,11 +967,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0\ [$Ft]"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1080,7 +1085,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1159,6 +1164,12 @@
         <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -1232,17 +1243,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1251,11 +1262,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1268,70 +1279,78 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -3650,19 +3669,19 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="C1" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="D1" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="E1" s="51" t="s">
         <v>240</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>241</v>
       </c>
       <c r="F1" s="52"/>
       <c r="G1" s="52"/>
@@ -3688,19 +3707,19 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="C2" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="D2" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="E2" s="52" t="s">
         <v>245</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>246</v>
       </c>
       <c r="F2" s="52"/>
       <c r="G2" s="52"/>
@@ -3726,19 +3745,19 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="52" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="C3" s="52" t="s">
         <v>248</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="D3" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="E3" s="52" t="s">
         <v>250</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>251</v>
       </c>
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
@@ -3764,19 +3783,19 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" s="52" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="C4" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="D4" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="E4" s="52" t="s">
         <v>255</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>256</v>
       </c>
       <c r="F4" s="52"/>
       <c r="G4" s="52"/>
@@ -3802,19 +3821,19 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="C5" s="52" t="s">
         <v>258</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="D5" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="E5" s="52" t="s">
         <v>260</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>261</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
@@ -3840,19 +3859,19 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="C6" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="D6" s="52" t="s">
         <v>264</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="E6" s="52" t="s">
         <v>265</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>266</v>
       </c>
       <c r="F6" s="52"/>
       <c r="G6" s="52"/>
@@ -3878,19 +3897,19 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="C7" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="D7" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="E7" s="52" t="s">
         <v>270</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>271</v>
       </c>
       <c r="F7" s="52"/>
       <c r="G7" s="52"/>
@@ -31837,7 +31856,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -32077,7 +32096,9 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -33168,7 +33189,9 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -33179,8 +33202,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>162</v>
+      <c r="A1" s="44" t="e">
+        <f>-+D2</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>163</v>
@@ -33205,16 +33229,17 @@
       <c r="B2" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="63" t="str">
+        <f>C3</f>
+        <v>@</v>
+      </c>
+      <c r="D2" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="59" t="s">
         <v>204</v>
       </c>
     </row>
@@ -33225,16 +33250,16 @@
       <c r="B3" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="63" t="s">
         <v>171</v>
       </c>
       <c r="D3" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="64" t="s">
         <v>206</v>
       </c>
       <c r="G3" s="13" t="s">
@@ -33248,7 +33273,7 @@
       <c r="B4" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="60" t="s">
         <v>171</v>
       </c>
       <c r="D4" s="45" t="s">
@@ -33257,7 +33282,7 @@
       <c r="E4" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="64" t="s">
         <v>206</v>
       </c>
       <c r="G4" s="13" t="s">
@@ -33280,38 +33305,38 @@
       <c r="E5" s="18">
         <v>909999999</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>208</v>
+      <c r="F5" s="66">
+        <v>9.0999999999999901E+22</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="45" t="s">
-        <v>209</v>
+      <c r="C6" s="62" t="s">
+        <v>208</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="60" t="s">
         <v>201</v>
       </c>
       <c r="C7" s="46" t="s">
@@ -33323,18 +33348,18 @@
       <c r="E7" s="18">
         <v>9985</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>212</v>
+      <c r="F7" s="64" t="s">
+        <v>211</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="60" t="s">
         <v>201</v>
       </c>
       <c r="C8" s="45" t="s">
@@ -33343,37 +33368,37 @@
       <c r="D8" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="60" t="s">
         <v>201</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D9" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -33381,10 +33406,10 @@
         <v>162</v>
       </c>
       <c r="B12" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="44" t="s">
         <v>214</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -33392,14 +33417,20 @@
         <v>169</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="C13" s="47" t="s">
-        <v>217</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{65420907-CDFC-4155-9CE8-FA22DA5A4883}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{BAF6E382-9BE0-4FF1-9604-BB59FCAFFFFD}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{CFEE2A8B-9048-4BA4-AEFB-C787B9AF1B96}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -33420,27 +33451,27 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="36" t="s">
         <v>221</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>223</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>224</v>
       </c>
       <c r="C2" s="48">
         <f>100000</f>
@@ -33457,10 +33488,10 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>225</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>226</v>
       </c>
       <c r="C3" s="48">
         <v>699999</v>
@@ -33476,10 +33507,10 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C4" s="48">
         <v>240000</v>
@@ -33494,10 +33525,10 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>228</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>229</v>
       </c>
       <c r="C5" s="48">
         <f>749500*1.27</f>
@@ -33516,10 +33547,10 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>230</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>231</v>
       </c>
       <c r="C6" s="48">
         <f>380000*1.27</f>
@@ -33535,10 +33566,10 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>233</v>
       </c>
       <c r="C7" s="48">
         <v>319000</v>
@@ -33553,10 +33584,10 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>234</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>235</v>
       </c>
       <c r="C8" s="48">
         <v>380000</v>
@@ -33571,10 +33602,10 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C9" s="48">
         <f>490000*1.27</f>

--- a/Simon Roland/teszt/TeszteljükLe.xlsx
+++ b/Simon Roland/teszt/TeszteljükLe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SimonRoland\Desktop\suli2023\KA_12D.github.io\Simon Roland\teszt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60793E19-B1B1-457F-A6FA-9A5E0F94D1A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9AE96F-6328-41DB-B2E4-45C1BA45109C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7350" tabRatio="675" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,11 +967,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0\ [$Ft]"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1243,17 +1251,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1262,11 +1270,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1279,78 +1287,78 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -32108,7 +32116,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="63" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="24" t="s">
@@ -32119,7 +32127,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
+      <c r="A2" s="64"/>
       <c r="B2" s="24" t="s">
         <v>72</v>
       </c>
@@ -32128,7 +32136,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="24" t="s">
         <v>74</v>
       </c>
@@ -32137,7 +32145,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="24" t="s">
         <v>76</v>
       </c>
@@ -32146,7 +32154,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="63" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="24" t="s">
@@ -32157,7 +32165,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="24" t="s">
         <v>81</v>
       </c>
@@ -32166,7 +32174,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="24" t="s">
         <v>83</v>
       </c>
@@ -32175,7 +32183,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="63" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -32186,7 +32194,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="24" t="s">
         <v>88</v>
       </c>
@@ -32195,7 +32203,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="63" t="s">
         <v>90</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -32206,35 +32214,35 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="29"/>
       <c r="C11" s="25" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="29"/>
       <c r="C12" s="25" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="29"/>
       <c r="C13" s="25" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="29"/>
       <c r="C14" s="25" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="24" t="s">
         <v>7</v>
       </c>
@@ -32243,7 +32251,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="24" t="s">
         <v>98</v>
       </c>
@@ -32252,7 +32260,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="24" t="s">
         <v>2</v>
       </c>
@@ -33190,7 +33198,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33229,17 +33237,17 @@
       <c r="B2" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="63" t="str">
+      <c r="C2" s="45" t="str">
         <f>C3</f>
         <v>@</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="56" t="s">
         <v>204</v>
       </c>
     </row>
@@ -33250,16 +33258,16 @@
       <c r="B3" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="45" t="s">
         <v>171</v>
       </c>
       <c r="D3" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="60" t="s">
         <v>206</v>
       </c>
       <c r="G3" s="13" t="s">
@@ -33273,7 +33281,7 @@
       <c r="B4" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="66" t="s">
         <v>171</v>
       </c>
       <c r="D4" s="45" t="s">
@@ -33282,7 +33290,7 @@
       <c r="E4" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="60" t="s">
         <v>206</v>
       </c>
       <c r="G4" s="13" t="s">
@@ -33305,7 +33313,7 @@
       <c r="E5" s="18">
         <v>909999999</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="62">
         <v>9.0999999999999901E+22</v>
       </c>
     </row>
@@ -33313,19 +33321,19 @@
       <c r="A6" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="59" t="s">
         <v>208</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="60" t="s">
         <v>209</v>
       </c>
       <c r="G6" s="13" t="s">
@@ -33336,7 +33344,7 @@
       <c r="A7" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="57" t="s">
         <v>201</v>
       </c>
       <c r="C7" s="46" t="s">
@@ -33348,7 +33356,7 @@
       <c r="E7" s="18">
         <v>9985</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="60" t="s">
         <v>211</v>
       </c>
       <c r="G7" s="13" t="s">
@@ -33359,7 +33367,7 @@
       <c r="A8" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="57" t="s">
         <v>201</v>
       </c>
       <c r="C8" s="45" t="s">
@@ -33368,10 +33376,10 @@
       <c r="D8" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="60" t="s">
         <v>209</v>
       </c>
       <c r="G8" s="13" t="s">
@@ -33382,7 +33390,7 @@
       <c r="A9" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="57" t="s">
         <v>201</v>
       </c>
       <c r="C9" s="45" t="s">
@@ -33391,10 +33399,10 @@
       <c r="D9" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="60" t="s">
         <v>209</v>
       </c>
       <c r="G9" s="13" t="s">

--- a/Simon Roland/teszt/TeszteljükLe.xlsx
+++ b/Simon Roland/teszt/TeszteljükLe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SimonRoland\Desktop\suli2023\KA_12D.github.io\Simon Roland\teszt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9AE96F-6328-41DB-B2E4-45C1BA45109C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8231C66-0116-484C-ADEC-E97F20981846}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7350" tabRatio="675" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,11 +967,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0\ [$Ft]"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1251,17 +1259,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1270,11 +1278,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1287,77 +1295,78 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -32116,7 +32125,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="24" t="s">
@@ -32127,7 +32136,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
+      <c r="A2" s="65"/>
       <c r="B2" s="24" t="s">
         <v>72</v>
       </c>
@@ -32136,7 +32145,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="24" t="s">
         <v>74</v>
       </c>
@@ -32145,7 +32154,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="24" t="s">
         <v>76</v>
       </c>
@@ -32154,7 +32163,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="24" t="s">
@@ -32165,7 +32174,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="24" t="s">
         <v>81</v>
       </c>
@@ -32174,7 +32183,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="24" t="s">
         <v>83</v>
       </c>
@@ -32183,7 +32192,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="64" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -32194,7 +32203,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="24" t="s">
         <v>88</v>
       </c>
@@ -32203,7 +32212,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="64" t="s">
         <v>90</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -32214,35 +32223,35 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="29"/>
       <c r="C11" s="25" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="29"/>
       <c r="C12" s="25" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="29"/>
       <c r="C13" s="25" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="29"/>
       <c r="C14" s="25" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="24" t="s">
         <v>7</v>
       </c>
@@ -32251,7 +32260,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="24" t="s">
         <v>98</v>
       </c>
@@ -32260,7 +32269,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="24" t="s">
         <v>2</v>
       </c>
@@ -33198,7 +33207,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33264,7 +33273,7 @@
       <c r="D3" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="67" t="s">
         <v>205</v>
       </c>
       <c r="F3" s="60" t="s">
@@ -33281,7 +33290,7 @@
       <c r="B4" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="63" t="s">
         <v>171</v>
       </c>
       <c r="D4" s="45" t="s">
